--- a/Project Development Phase/Performance Testing/Performance Testing.xlsx
+++ b/Project Development Phase/Performance Testing/Performance Testing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IBM-Project-39133-1660397104\Project Development Phase\Performance Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014A5045-BE64-4D39-AB34-EF6ADDB0195C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3732C11-3939-4050-B5CD-518B78A82EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{209F302D-D027-3045-82BB-D9422A64EC64}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
   <si>
     <t>S.No</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>End Of Test Report</t>
-  </si>
-  <si>
-    <t>Plasma Donor</t>
   </si>
   <si>
     <t>Application is available 24/7</t>
@@ -617,24 +614,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -652,6 +631,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -970,7 +967,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -989,18 +986,18 @@
   <sheetData>
     <row r="1" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="22" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="25"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="12" t="s">
@@ -1039,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>14</v>
@@ -1061,7 +1058,7 @@
         <v>26</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.5">
@@ -1087,7 +1084,7 @@
         <v>25</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.5">
@@ -1113,7 +1110,7 @@
         <v>27</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.5">
@@ -1139,7 +1136,7 @@
         <v>26</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1156,13 +1153,13 @@
     </row>
     <row r="9" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
     </row>
     <row r="11" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.6">
       <c r="D11" s="19" t="s">
@@ -1181,30 +1178,30 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="28" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="29">
+    <row r="12" spans="1:10" s="22" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="23">
         <v>1</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="G12" s="25"/>
+      <c r="H12" s="26" t="s">
         <v>46</v>
-      </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="32" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:10" ht="64.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A15" s="15" t="s">
@@ -1235,30 +1232,30 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="33" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33">
+    <row r="16" spans="1:10" s="27" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27">
         <v>1</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="D16" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="27" t="s">
         <v>46</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
